--- a/backend/fms_core/tests/valid_templates/Sample_extraction_v4_12_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Sample_extraction_v4_12_0.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ExtractionTemplate" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Info" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Index" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="ExtractionTemplate" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Info" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Index" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2127,118 +2127,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI1000"/>
+  <dimension ref="A1:AI1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -2246,7 +2140,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.24"/>
@@ -2482,70 +2376,70 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="20" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="21" t="n">
-        <v>2</v>
-      </c>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
-        <v>24</v>
-      </c>
+      <c r="E8" s="23"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="24"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="O8" s="26"/>
       <c r="P8" s="27"/>
-      <c r="Q8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="30" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" s="21" t="n">
+        <v>2</v>
+      </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="M9" s="24"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
+      <c r="O9" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="30"/>
+      <c r="Q9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
@@ -4474,9 +4368,9 @@
       <c r="M101" s="24"/>
       <c r="N101" s="25"/>
       <c r="O101" s="26"/>
-      <c r="P101" s="24"/>
-      <c r="Q101" s="31"/>
-      <c r="R101" s="32"/>
+      <c r="P101" s="27"/>
+      <c r="Q101" s="28"/>
+      <c r="R101" s="29"/>
       <c r="S101" s="30"/>
     </row>
     <row r="102" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23338,69 +23232,90 @@
       <c r="S999" s="30"/>
     </row>
     <row r="1000" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="33"/>
-      <c r="B1000" s="34"/>
-      <c r="C1000" s="35"/>
-      <c r="D1000" s="36"/>
-      <c r="E1000" s="37"/>
-      <c r="F1000" s="38"/>
-      <c r="G1000" s="38"/>
-      <c r="H1000" s="39"/>
-      <c r="I1000" s="38"/>
-      <c r="J1000" s="38"/>
-      <c r="K1000" s="38"/>
-      <c r="L1000" s="39"/>
-      <c r="M1000" s="38"/>
-      <c r="N1000" s="39"/>
-      <c r="O1000" s="40"/>
-      <c r="P1000" s="38"/>
-      <c r="Q1000" s="41"/>
-      <c r="R1000" s="42"/>
-      <c r="S1000" s="43"/>
+      <c r="A1000" s="19"/>
+      <c r="B1000" s="20"/>
+      <c r="C1000" s="21"/>
+      <c r="D1000" s="22"/>
+      <c r="E1000" s="23"/>
+      <c r="F1000" s="24"/>
+      <c r="G1000" s="24"/>
+      <c r="H1000" s="25"/>
+      <c r="I1000" s="24"/>
+      <c r="J1000" s="24"/>
+      <c r="K1000" s="24"/>
+      <c r="L1000" s="25"/>
+      <c r="M1000" s="24"/>
+      <c r="N1000" s="25"/>
+      <c r="O1000" s="26"/>
+      <c r="P1000" s="24"/>
+      <c r="Q1000" s="31"/>
+      <c r="R1000" s="32"/>
+      <c r="S1000" s="30"/>
+    </row>
+    <row r="1001" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="33"/>
+      <c r="B1001" s="34"/>
+      <c r="C1001" s="35"/>
+      <c r="D1001" s="36"/>
+      <c r="E1001" s="37"/>
+      <c r="F1001" s="38"/>
+      <c r="G1001" s="38"/>
+      <c r="H1001" s="39"/>
+      <c r="I1001" s="38"/>
+      <c r="J1001" s="38"/>
+      <c r="K1001" s="38"/>
+      <c r="L1001" s="39"/>
+      <c r="M1001" s="38"/>
+      <c r="N1001" s="39"/>
+      <c r="O1001" s="40"/>
+      <c r="P1001" s="38"/>
+      <c r="Q1001" s="41"/>
+      <c r="R1001" s="42"/>
+      <c r="S1001" s="43"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J6:J1000">
+  <conditionalFormatting sqref="J6:J1001">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>OR($L6="Tube")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A1001" type="list">
       <formula1>"DNA,RNA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:P1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:P1001" type="list">
       <formula1>"YES"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B1000 M6:M1000" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B1001 M6:M1001" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F1000 N6:N1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6:F1001 N6:N1001" type="list">
       <formula1>Index!$A$2:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L1000" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L1001" type="list">
       <formula1>Index!$D$2:$D$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S6:S1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S6:S1001" type="list">
       <formula1>Index!$H$2:$H$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J1001" type="list">
       <formula1>IF($L6="384-well plate",Index!$B$2:$B$385,IF($L6="96-well plate", Index!$A$2:$A$97, ""))</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:H1000" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:H1001" type="none">
       <formula1>Index!$A$2:$A$97</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -23409,7 +23324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -23419,7 +23334,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.14"/>
   </cols>
@@ -23636,7 +23551,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -23645,7 +23560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -23655,7 +23570,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.52734375" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.51953125" defaultRowHeight="13.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.38"/>
@@ -26621,8 +26536,8 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
